--- a/data/IELTS.xlsx
+++ b/data/IELTS.xlsx
@@ -12,14 +12,539 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="475">
+  <si>
+    <t>niggle</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>a small criticism</t>
+  </si>
+  <si>
+    <t>小牢騷，小意見</t>
+  </si>
+  <si>
+    <t>monarch</t>
+  </si>
+  <si>
+    <t>a king or queen</t>
+  </si>
+  <si>
+    <t>君主；國王，皇帝；女王，女皇</t>
+  </si>
+  <si>
+    <t>subterfuge</t>
+  </si>
+  <si>
+    <t>a trick or a dishonest way of achieving something</t>
+  </si>
+  <si>
+    <t>花招，伎倆；詭計</t>
+  </si>
+  <si>
+    <t>trickery</t>
+  </si>
+  <si>
+    <t>the activity of using tricks to deceive or cheat people</t>
+  </si>
+  <si>
+    <t>欺騙，欺詐</t>
+  </si>
+  <si>
+    <t>wit</t>
+  </si>
+  <si>
+    <t>the ability to use words in a clever and humorous way</t>
+  </si>
+  <si>
+    <t>（說話的）幽默風趣</t>
+  </si>
+  <si>
+    <t>tantalizing</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>Something that is tantalizing causes desire and excitement in you, but is unlikely to provide a way of satisfying that desire.</t>
+  </si>
+  <si>
+    <t>逗引性的；挑逗性的</t>
+  </si>
+  <si>
+    <t>regime</t>
+  </si>
+  <si>
+    <t>a particular government or a system or method of government</t>
+  </si>
+  <si>
+    <t>政府；政權；政體</t>
+  </si>
+  <si>
+    <t>republican</t>
+  </si>
+  <si>
+    <t>a supporter of government by elected representatives of the people rather than government by a king or queen</t>
+  </si>
+  <si>
+    <t>擁護共和政體者；共和主義者</t>
+  </si>
+  <si>
+    <t>fierce</t>
+  </si>
+  <si>
+    <t>showing strong feeling or energetic activity</t>
+  </si>
+  <si>
+    <t>強烈的；狂熱的</t>
+  </si>
+  <si>
+    <t>sympathy</t>
+  </si>
+  <si>
+    <t>(an expression of) understanding and care for someone else's suffering</t>
+  </si>
+  <si>
+    <t>同情（心），理解</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>to take someone or something or make someone or something go in the direction in which you want him, her, or it</t>
+  </si>
+  <si>
+    <t>引導，帶領</t>
+  </si>
+  <si>
+    <t>If a vehicle steers, it follows a particular route or direction.</t>
+  </si>
+  <si>
+    <t>（交通工具）行駛，沿（特定路線或方向）行進</t>
+  </si>
+  <si>
+    <t>deftly</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>in a skilful, clever, or quick way</t>
+  </si>
+  <si>
+    <t>prose</t>
+  </si>
+  <si>
+    <t>written language in its ordinary form rather than poetry</t>
+  </si>
+  <si>
+    <t>散文</t>
+  </si>
+  <si>
+    <t>pacy</t>
+  </si>
+  <si>
+    <t>A pacy novel, story, film, etc. contains a lot of action or events that happen quickly.</t>
+  </si>
+  <si>
+    <t>（小說、故事、電影等）快節奏的</t>
+  </si>
+  <si>
+    <t>bedchamber</t>
+  </si>
+  <si>
+    <t>a bedroom</t>
+  </si>
+  <si>
+    <t>臥室，睡房</t>
+  </si>
+  <si>
+    <t>cherub</t>
+  </si>
+  <si>
+    <t>an angel that is represented in art as a beautiful, fat, naked child with small wings</t>
+  </si>
+  <si>
+    <t>小天使（藝術作品中表現為長著小翅膀、胖胖的裸身孩童形象）</t>
+  </si>
+  <si>
+    <t>squadron</t>
+  </si>
+  <si>
+    <t>a unit of one of the armed forces, especially (in Britain) the air force or the navy</t>
+  </si>
+  <si>
+    <t>（尤指英國空軍或海軍的）中隊</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>to formally choose someone to do a special piece of work, or to formally ask for a special piece of work from someone</t>
+  </si>
+  <si>
+    <t>（正式地）安排…做，委託…做</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>a single event or group of related events</t>
+  </si>
+  <si>
+    <t>事件；（相關的）一連串事件；一段經歷</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>extremely large</t>
+  </si>
+  <si>
+    <t>極大的；巨大的；龐大的</t>
+  </si>
+  <si>
+    <t>chivalry</t>
+  </si>
+  <si>
+    <t>the system of behaviour followed by knights in the medieval period of history, that put a high value on honour, kindness, and courage</t>
+  </si>
+  <si>
+    <t>騎士精神；騎士制度</t>
+  </si>
+  <si>
+    <t>memorialize</t>
+  </si>
+  <si>
+    <t>to make people remember a person or event, or to show that you remember them</t>
+  </si>
+  <si>
+    <t>（使）紀念</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>a new plan or process to achieve something or solve a problem</t>
+  </si>
+  <si>
+    <t>倡議；新措施</t>
+  </si>
+  <si>
+    <t>courtier</t>
+  </si>
+  <si>
+    <t>a companion of a queen, king, or other ruler in their official home, especially in the past</t>
+  </si>
+  <si>
+    <t>（尤指舊時的）朝臣，侍臣</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>needing or wanting something very much</t>
+  </si>
+  <si>
+    <t>非常需要的；非常想要的</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>to lock a door or window by sliding a bolt across</t>
+  </si>
+  <si>
+    <t>閂上（門或窗）</t>
+  </si>
+  <si>
+    <t>appal</t>
+  </si>
+  <si>
+    <t>to make someone have strong feelings of shock or of disapproval</t>
+  </si>
+  <si>
+    <t>使驚駭；使震驚</t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>to begin something</t>
+  </si>
+  <si>
+    <t>開始；著手</t>
+  </si>
+  <si>
+    <t>recollection</t>
+  </si>
+  <si>
+    <t>a memory of something</t>
+  </si>
+  <si>
+    <t>回憶（的事情），記憶；往事</t>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <t>very unusual, special, unexpected, or strange</t>
+  </si>
+  <si>
+    <t>非凡的；特別的；意想不到的；令人驚奇的</t>
+  </si>
+  <si>
+    <t>diarist</t>
+  </si>
+  <si>
+    <t>someone who is known for writing or having written a diary</t>
+  </si>
+  <si>
+    <t>日記作者</t>
+  </si>
+  <si>
+    <t>the Restoration</t>
+  </si>
+  <si>
+    <t>the event in British history when Charles II was made king in 1660 after a period in which there was no king or queen</t>
+  </si>
+  <si>
+    <t>王政復辟（1660年查理二世的復辟）</t>
+  </si>
+  <si>
+    <t>dignity</t>
+  </si>
+  <si>
+    <t>calm, serious, and controlled behaviour that makes people respect you</t>
+  </si>
+  <si>
+    <t>莊重，端莊；尊嚴</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>a reason, cause, or argument</t>
+  </si>
+  <si>
+    <t>原因，根據，理由</t>
+  </si>
+  <si>
+    <t>disguise</t>
+  </si>
+  <si>
+    <t>something that someone wears to hide their true appearance</t>
+  </si>
+  <si>
+    <t>化裝用具（服飾）；用於偽裝的東西</t>
+  </si>
+  <si>
+    <t>preposterous</t>
+  </si>
+  <si>
+    <t>very silly or stupid</t>
+  </si>
+  <si>
+    <t>荒謬的，愚蠢的</t>
+  </si>
+  <si>
+    <t>scour</t>
+  </si>
+  <si>
+    <t>to search a place or thing very carefully in order to try to find something</t>
+  </si>
+  <si>
+    <t>認真搜索，細查</t>
+  </si>
+  <si>
+    <t>oak</t>
+  </si>
+  <si>
+    <t>a large tree that is common in northern countries, or the hard wood of this tree</t>
+  </si>
+  <si>
+    <t>橡樹，櫟樹；橡木，櫟木</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>a nut with a slightly bitter taste and a series of folds in it and a hard shell, or (the expensive, light brown wood from) the tree that produces these nuts</t>
+  </si>
+  <si>
+    <t>胡桃，核桃；胡桃樹，核桃樹；胡桃木，核桃木</t>
+  </si>
+  <si>
+    <t>shears</t>
+  </si>
+  <si>
+    <t>very large scissors</t>
+  </si>
+  <si>
+    <t>大剪刀</t>
+  </si>
+  <si>
+    <t>fugitive</t>
+  </si>
+  <si>
+    <t>a person who is running away or hiding from the police or a dangerous situation</t>
+  </si>
+  <si>
+    <t>逃亡者，逃犯；難民</t>
+  </si>
+  <si>
+    <t>narrative</t>
+  </si>
+  <si>
+    <t>a story or a description of a series of events</t>
+  </si>
+  <si>
+    <t>故事；敘述</t>
+  </si>
+  <si>
+    <t>circumstance</t>
+  </si>
+  <si>
+    <t>a fact or event that makes a situation the way it is</t>
+  </si>
+  <si>
+    <t>條件，情況；情形，形勢</t>
+  </si>
+  <si>
+    <t>penniless</t>
+  </si>
+  <si>
+    <t>having no money</t>
+  </si>
+  <si>
+    <t>一文不名的，一貧如洗的</t>
+  </si>
+  <si>
+    <t>evade</t>
+  </si>
+  <si>
+    <t>to avoid or escape from someone or something</t>
+  </si>
+  <si>
+    <t>逃脫，躲開；迴避，逃避</t>
+  </si>
+  <si>
+    <t>refuge</t>
+  </si>
+  <si>
+    <t>(a place that gives) protection or shelter from danger, trouble, unhappiness, etc.</t>
+  </si>
+  <si>
+    <t>避難（所）；庇護（所）；慰藉</t>
+  </si>
+  <si>
+    <t>manhunt</t>
+  </si>
+  <si>
+    <t>an organized search for a person, especially a criminal</t>
+  </si>
+  <si>
+    <t>（尤指對罪犯的）搜捕，追捕</t>
+  </si>
+  <si>
+    <t>meadow</t>
+  </si>
+  <si>
+    <t>a field with grass and often wild flowers in it</t>
+  </si>
+  <si>
+    <t>（常指有野花的）草地，牧場</t>
+  </si>
+  <si>
+    <t>pre-emptive</t>
+  </si>
+  <si>
+    <t>If something is pre-emptive, it is done before other people can act, especially to prevent them from doing something else.</t>
+  </si>
+  <si>
+    <t>搶先的；（尤指）先發制人的</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>to make something happen</t>
+  </si>
+  <si>
+    <t>引起；導致；激起</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>to put a crown on someone's head in an official ceremony that makes that person king or queen</t>
+  </si>
+  <si>
+    <t>為…加冕；立…為君主</t>
+  </si>
+  <si>
+    <t>Protestant</t>
+  </si>
+  <si>
+    <t>of or relating to these parts of the Christian Church</t>
+  </si>
+  <si>
+    <t>新教的；和新教有關的</t>
+  </si>
+  <si>
+    <t>Presbyterian</t>
+  </si>
+  <si>
+    <t>relating or belonging to a Christian group that has members especially in Scotland and the US</t>
+  </si>
+  <si>
+    <t>（尤指蘇格蘭和美國的）長老會的，長老派的</t>
+  </si>
+  <si>
+    <t>Scots</t>
+  </si>
+  <si>
+    <t>belonging to or relating to Scotland or its people</t>
+  </si>
+  <si>
+    <t>蘇格蘭的；蘇格蘭人的</t>
+  </si>
+  <si>
+    <t>Scot</t>
+  </si>
+  <si>
+    <t>a person from Scotland</t>
+  </si>
+  <si>
+    <t>蘇格蘭人</t>
+  </si>
+  <si>
+    <t>resounding</t>
+  </si>
+  <si>
+    <t>very great</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>not military or religious, or relating to the ordinary people of a country</t>
+  </si>
+  <si>
+    <t>文職的；民用的；平民的，國民的</t>
+  </si>
   <si>
     <t>amenity</t>
   </si>
   <si>
-    <t>noun</t>
-  </si>
-  <si>
     <t>something, such as a swimming pool or shopping centre, that is intended to make life more pleasant or comfortable for the people in a town, hotel, or other place</t>
   </si>
   <si>
@@ -47,9 +572,6 @@
     <t>oval</t>
   </si>
   <si>
-    <t>adjective</t>
-  </si>
-  <si>
     <t>shaped like a circle that is flattened so that it is like an egg or an ellipse</t>
   </si>
   <si>
@@ -59,9 +581,6 @@
     <t>inaugurate</t>
   </si>
   <si>
-    <t>verb</t>
-  </si>
-  <si>
     <t>to put something into use or action officially</t>
   </si>
   <si>
@@ -276,9 +795,6 @@
   </si>
   <si>
     <t>notably</t>
-  </si>
-  <si>
-    <t>adverb</t>
   </si>
   <si>
     <t>to an important degree, or in a way that can or should be noticed</t>
@@ -1088,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1105,7 +1621,7 @@
     </row>
     <row r="2" ht="25.0" customHeight="true">
       <c r="A2" s="10" t="s">
-        <v>302</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3">
@@ -1155,105 +1671,105 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
@@ -1264,1230 +1780,2040 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D99" s="8"/>
+        <v>291</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="B102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D102" s="7" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/data/IELTS.xlsx
+++ b/data/IELTS.xlsx
@@ -12,14 +12,1367 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="916">
+  <si>
+    <t>scepticism</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>an attitude that shows you doubt whether something is true or useful</t>
+  </si>
+  <si>
+    <t>懷疑態度</t>
+  </si>
+  <si>
+    <t>reputation</t>
+  </si>
+  <si>
+    <t>the opinion that people in general have about someone or something, or how much respect or admiration someone or something receives, based on past behaviour or character</t>
+  </si>
+  <si>
+    <t>名譽;聲望;名望</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>to imagine something</t>
+  </si>
+  <si>
+    <t>想像;想出;構想</t>
+  </si>
+  <si>
+    <t>novel</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>new and original, not like anything seen before</t>
+  </si>
+  <si>
+    <t>新穎的，新奇的</t>
+  </si>
+  <si>
+    <t>fanciful</t>
+  </si>
+  <si>
+    <t>not likely to succeed or happen in the real world</t>
+  </si>
+  <si>
+    <t>空想的；想像的</t>
+  </si>
+  <si>
+    <t>speculation</t>
+  </si>
+  <si>
+    <t>the activity of guessing possible answers to a question without having enough information to be certain</t>
+  </si>
+  <si>
+    <t>猜測;推測，推斷</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>in the middle of or surrounded by</t>
+  </si>
+  <si>
+    <t>在…中間，在…當中;為…環繞</t>
+  </si>
+  <si>
+    <t>noteworthy</t>
+  </si>
+  <si>
+    <t>deserving attention because of being important or interesting</t>
+  </si>
+  <si>
+    <t>顯著的；值得注意的</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>the smallest unit of any chemical element, consisting of a positive nucleus surrounded by negative electrons. Atoms can combine to form a molecule</t>
+  </si>
+  <si>
+    <t>原子</t>
+  </si>
+  <si>
+    <t>proto-</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>first, especially from which other similar things develop; original</t>
+  </si>
+  <si>
+    <t>第一，首要;原始</t>
+  </si>
+  <si>
+    <t>postulate</t>
+  </si>
+  <si>
+    <t>to suggest a theory, idea, etc. as a basic principle from which a further idea is formed or developed</t>
+  </si>
+  <si>
+    <t>假定，假設</t>
+  </si>
+  <si>
+    <t>aspire to sth</t>
+  </si>
+  <si>
+    <t>to have a strong wish or hope to do or have something</t>
+  </si>
+  <si>
+    <t>追求;渴望;有志於</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>to make someone less confident, less powerful, or less likely to succeed, or to make something weaker, often gradually</t>
+  </si>
+  <si>
+    <t>（常指逐漸地）削弱信心、權威等，損害</t>
+  </si>
+  <si>
+    <t>duly</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>in the correct way or at the correct time; as expected</t>
+  </si>
+  <si>
+    <t>恰當地；適時地；應當地</t>
+  </si>
+  <si>
+    <t>disprove</t>
+  </si>
+  <si>
+    <t>to prove that something is not true</t>
+  </si>
+  <si>
+    <t>證明…是虛假的；駁倒</t>
+  </si>
+  <si>
+    <t>endeavour</t>
+  </si>
+  <si>
+    <t>to try to do something</t>
+  </si>
+  <si>
+    <t>努力；奮力</t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t>an area of interest or activity</t>
+  </si>
+  <si>
+    <t>（興趣或活動的）界，領域，範圍</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>designed to be practical and useful rather than attractive</t>
+  </si>
+  <si>
+    <t>爲實用而設計的，實用的</t>
+  </si>
+  <si>
+    <t>spontaneously</t>
+  </si>
+  <si>
+    <t>in a way that is natural, often sudden, and not planned or forced</t>
+  </si>
+  <si>
+    <t>自然的，自發的</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+  </si>
+  <si>
+    <t>someone who had a job or a position before someone else, or something that comes before another thing in time or in a series</t>
+  </si>
+  <si>
+    <t>前任，前輩；原有事物，前身</t>
+  </si>
+  <si>
+    <t>coincidence</t>
+  </si>
+  <si>
+    <t>an occasion when two or more similar things happen at the same time, especially in a way that is unlikely and surprising</t>
+  </si>
+  <si>
+    <t>同時發生；（尤指令人吃驚的）巧合，碰巧的事</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>to cause a reaction, especially a negative one</t>
+  </si>
+  <si>
+    <t>激起，引起（尤指負面反應）</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>a belief or idea</t>
+  </si>
+  <si>
+    <t>觀念；看法</t>
+  </si>
+  <si>
+    <t>set out</t>
+  </si>
+  <si>
+    <t>to start an activity with a particular aim</t>
+  </si>
+  <si>
+    <t>（懷著特定目的）開始，著手</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>a single living plant, animal, virus, etc.</t>
+  </si>
+  <si>
+    <t>生物體；有機體；微生物</t>
+  </si>
+  <si>
+    <t>stirrup</t>
+  </si>
+  <si>
+    <t>one of a pair of pieces of metal shaped like the letter D that hang from the side of a horse's saddle, used for resting your foot when you are riding</t>
+  </si>
+  <si>
+    <t>馬鐙</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+  </si>
+  <si>
+    <t>relating to your ability to think and understand things, especially complicated ideas</t>
+  </si>
+  <si>
+    <t>智力的，腦力的</t>
+  </si>
+  <si>
+    <t>sheer</t>
+  </si>
+  <si>
+    <t>used to emphasize how very great, important, or powerful a quality or feeling is; nothing except</t>
+  </si>
+  <si>
+    <t>完全的，徹底的</t>
+  </si>
+  <si>
+    <t>physicist</t>
+  </si>
+  <si>
+    <t>a person who studies physics or whose job is connected with physics</t>
+  </si>
+  <si>
+    <t>物理學家</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>based on the ideas that relate to a subject, not the practical uses of that subject</t>
+  </si>
+  <si>
+    <t>理論上的；純理論的</t>
+  </si>
+  <si>
+    <t>intensify</t>
+  </si>
+  <si>
+    <t>to become greater, more serious, or more extreme, or to make something do this</t>
+  </si>
+  <si>
+    <t>加強，增強；強化</t>
+  </si>
+  <si>
+    <t>disagreement</t>
+  </si>
+  <si>
+    <t>an argument or a situation in which people do not have the same opinion</t>
+  </si>
+  <si>
+    <t>分歧，意見不合</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>the words that an actor speaks when performing in a film, play, etc.</t>
+  </si>
+  <si>
+    <t>（電影或話劇演員的）詞，台詞</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>a part of a play or opera</t>
+  </si>
+  <si>
+    <t>（戲劇或歌劇的）幕</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>traditional and ordinary</t>
+  </si>
+  <si>
+    <t>傳統的；常規的；普通的</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>past simple and past participle of light</t>
+  </si>
+  <si>
+    <t>（light的過去式及過去分詞）</t>
+  </si>
+  <si>
+    <t>dimly</t>
+  </si>
+  <si>
+    <t>in a way that does not give or have much light</t>
+  </si>
+  <si>
+    <t>暗淡地，昏暗地，微弱地</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>a particular series of performances of a theatre entertainment such as a play or opera</t>
+  </si>
+  <si>
+    <t>上演；上映</t>
+  </si>
+  <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>a short piece of writing on a particular subject, especially one done by students as part of the work for a course</t>
+  </si>
+  <si>
+    <t>（尤指學生寫的作爲課程作業的）短文；論說文；小品文，散文</t>
+  </si>
+  <si>
+    <t>imagery</t>
+  </si>
+  <si>
+    <t>the use of words or pictures in books, films, paintings, etc. to describe ideas or situations</t>
+  </si>
+  <si>
+    <t>（書籍、電影、繪畫等中的）意象，形象化描述</t>
+  </si>
+  <si>
+    <t>(just) in case</t>
+  </si>
+  <si>
+    <t>because of a possibility of something happening, being needed, etc.</t>
+  </si>
+  <si>
+    <t>以防萬一</t>
+  </si>
+  <si>
+    <t>recognizable</t>
+  </si>
+  <si>
+    <t>easy to recognize</t>
+  </si>
+  <si>
+    <t>可以認出的；可識別的；可認識的</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>connected with what is happening or being discussed</t>
+  </si>
+  <si>
+    <t>有關的；相關聯的；切題的</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>the way in which someone speaks in public</t>
+  </si>
+  <si>
+    <t>演講風格（或方式）；表演風格（或方式）</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>the place where a film or play is performed or recorded, and the pictures, furniture, etc. that are used</t>
+  </si>
+  <si>
+    <t>佈景；場景</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>If two or more statements, ideas, sets of numbers, etc. disagree, they are not the same.</t>
+  </si>
+  <si>
+    <t>有不同，有差別，不一致</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>a good characteristic</t>
+  </si>
+  <si>
+    <t>優點，長處，強項</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>a mention of something</t>
+  </si>
+  <si>
+    <t>提到；談到；論及</t>
+  </si>
+  <si>
+    <t>theatre</t>
+  </si>
+  <si>
+    <t>a building, room, or outside structure with rows of seats, each row usually higher than the one in front, from which people can watch a performance or other activity</t>
+  </si>
+  <si>
+    <t>劇院，戲院；電影院</t>
+  </si>
+  <si>
+    <t>staple</t>
+  </si>
+  <si>
+    <t>basic or main; standard or regular</t>
+  </si>
+  <si>
+    <t>基本的，主要的；標準的，常規的</t>
+  </si>
+  <si>
+    <t>thrive</t>
+  </si>
+  <si>
+    <t>to grow, develop, or be successful</t>
+  </si>
+  <si>
+    <t>茁壯成長；興旺，繁榮</t>
+  </si>
+  <si>
+    <t>oat</t>
+  </si>
+  <si>
+    <t>made of or from oats</t>
+  </si>
+  <si>
+    <t>燕麥的</t>
+  </si>
+  <si>
+    <t>be catapulted into sth</t>
+  </si>
+  <si>
+    <t>to suddenly experience a particular state, such as being famous</t>
+  </si>
+  <si>
+    <t>突然經歷；一躍而成</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>not known to many people</t>
+  </si>
+  <si>
+    <t>無名的；鮮為人知的；默默無聞的</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>official permission</t>
+  </si>
+  <si>
+    <t>批准，核准；認可</t>
+  </si>
+  <si>
+    <t>regulatory</t>
+  </si>
+  <si>
+    <t>controlling</t>
+  </si>
+  <si>
+    <t>管理的；控制的；監管的</t>
+  </si>
+  <si>
+    <t>ripe</t>
+  </si>
+  <si>
+    <t>(of fruit or crops) completely developed and ready to be collected or eaten</t>
+  </si>
+  <si>
+    <t>（果實或莊稼）成熟的</t>
+  </si>
+  <si>
+    <t>sprawling</t>
+  </si>
+  <si>
+    <t>(of a city) covered with buildings across a large area, often ones that have been added gradually over a period of time</t>
+  </si>
+  <si>
+    <t>（尤指城市建築）雜亂無序的，散亂延伸的</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>area or length; amount</t>
+  </si>
+  <si>
+    <t>面積，範圍；長度；數量</t>
+  </si>
+  <si>
+    <t>physalis</t>
+  </si>
+  <si>
+    <t>a small orange fruit that looks like a small tomato and that grows surrounded by light-brown, paper-like leaves</t>
+  </si>
+  <si>
+    <t>酸漿屬，酸漿果，毛酸漿</t>
+  </si>
+  <si>
+    <t>tolerant</t>
+  </si>
+  <si>
+    <t>able to deal with something unpleasant or annoying, or to continue existing despite bad or difficult conditions</t>
+  </si>
+  <si>
+    <t>忍耐的；忍受的</t>
+  </si>
+  <si>
+    <t>aromatic</t>
+  </si>
+  <si>
+    <t>having a pleasant smell</t>
+  </si>
+  <si>
+    <t>有香味的，有香氣的，芳香的</t>
+  </si>
+  <si>
+    <t>lycopene</t>
+  </si>
+  <si>
+    <t>a substance in tomatoes and some other red fruits that may prevent some types of cancer</t>
+  </si>
+  <si>
+    <t>茄紅素（存在於番茄或其他一些紅色果實中的一種物質，對某些癌症有預防作用）</t>
+  </si>
+  <si>
+    <t>pigment</t>
+  </si>
+  <si>
+    <t>a substance that gives something a particular colour when it is present in it or is added to it</t>
+  </si>
+  <si>
+    <t>色素；顏料</t>
+  </si>
+  <si>
+    <t>flora</t>
+  </si>
+  <si>
+    <t>all the plants of a particular place or from a particular time in history</t>
+  </si>
+  <si>
+    <t>（某一地點或時期的）植物群</t>
+  </si>
+  <si>
+    <t>truss</t>
+  </si>
+  <si>
+    <t>a support for a roof or bridge that is usually made of stone or brick</t>
+  </si>
+  <si>
+    <t>（支撐屋頂、橋樑的）構架，托臂，桁架</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>an animal or plant from a particular group whose characteristics are different in some way from others of the same group</t>
+  </si>
+  <si>
+    <t>（動植物的）品系，株系，品種</t>
+  </si>
+  <si>
+    <t>desirable</t>
+  </si>
+  <si>
+    <t>worth having and wanted by most people</t>
+  </si>
+  <si>
+    <t>值得擁有的；渴望獲得的，令人嚮往的</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>a type of grain grown in hot countries</t>
+  </si>
+  <si>
+    <t>高粱</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>a tall plant grown in many parts of the world for its yellow seeds, which are eaten as food, made into flour, or fed to animals</t>
+  </si>
+  <si>
+    <t>玉蜀黍，玉米</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>a plant whose yellowish-brown grain is used for making flour, or the grain itself</t>
+  </si>
+  <si>
+    <t>小麥</t>
+  </si>
+  <si>
+    <t>devastate</t>
+  </si>
+  <si>
+    <t>to destroy a place or thing completely or cause great damage</t>
+  </si>
+  <si>
+    <t>摧毀；毀滅</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>any of various types of organisms that get their food from decaying material or other living things</t>
+  </si>
+  <si>
+    <t>真菌；真菌類植物</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>a reddish-brown substance that forms on the surface of iron and steel as a result of reacting with air and water</t>
+  </si>
+  <si>
+    <t>銹；鐵銹</t>
+  </si>
+  <si>
+    <t>resistant</t>
+  </si>
+  <si>
+    <t>not harmed or affected by something</t>
+  </si>
+  <si>
+    <t>對…有抵抗能力的；抵抗…的；耐…的</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>故意地</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>the complete set of genetic material of a human, animal, plant, or other living thing</t>
+  </si>
+  <si>
+    <t>基因組，染色體組</t>
+  </si>
+  <si>
+    <t>domesticate</t>
+  </si>
+  <si>
+    <t>to bring animals or plants under human control in order to provide food, power, or company</t>
+  </si>
+  <si>
+    <t>馴化，馴養；人工培植</t>
+  </si>
+  <si>
+    <t>flavour</t>
+  </si>
+  <si>
+    <t>how food or drink tastes, or a particular taste itself</t>
+  </si>
+  <si>
+    <t>（食物或飲料的）風味；（某種）味道</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>the way in which genes change and produce permanent differences</t>
+  </si>
+  <si>
+    <t>（基因的）突變，變異</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>a particular characteristic that can produce a particular type of behaviour</t>
+  </si>
+  <si>
+    <t>（個人的）特徵，特性，品質</t>
+  </si>
+  <si>
+    <t>undesirable</t>
+  </si>
+  <si>
+    <t>not wanted, approved of, or popular</t>
+  </si>
+  <si>
+    <t>令人討厭的；不受歡迎的</t>
+  </si>
+  <si>
+    <t>advisable</t>
+  </si>
+  <si>
+    <t>If something is advisable, it will avoid problems if you do it.</t>
+  </si>
+  <si>
+    <t>明智的；可取的；適當的</t>
+  </si>
+  <si>
+    <t>domestication</t>
+  </si>
+  <si>
+    <t>the process of bringing animals or plants under human control in order to provide food, power, or company</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>cows and bulls that are kept for their milk or meat</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>to start a company or organization that will continue for a long time</t>
+  </si>
+  <si>
+    <t>建立；設立；創立</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>the way that something is arranged</t>
+  </si>
+  <si>
+    <t>佈局，佈置，排列</t>
+  </si>
+  <si>
+    <t>pickle</t>
+  </si>
+  <si>
+    <t>vegetables or fruit that have been preserved in a vinegar sauce or salty water</t>
+  </si>
+  <si>
+    <t>醃菜，泡菜；醬菜</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>a sweet, soft food made by cooking fruit with sugar to preserve it. It is eaten on bread.</t>
+  </si>
+  <si>
+    <t>果醬</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>to clean an animal, often by brushing its fur</t>
+  </si>
+  <si>
+    <t>擦洗，刷洗（動物）</t>
+  </si>
+  <si>
+    <t>plough</t>
+  </si>
+  <si>
+    <t>to dig land with a plough</t>
+  </si>
+  <si>
+    <t>耕，犁</t>
+  </si>
+  <si>
+    <t>dominate</t>
+  </si>
+  <si>
+    <t>to be the largest, most important, or most noticeable part of something</t>
+  </si>
+  <si>
+    <t>在…中占首要地位；擁有優勢；最明顯的</t>
+  </si>
+  <si>
+    <t>ally</t>
+  </si>
+  <si>
+    <t>a country that has agreed officially to give help and support to another one, especially during a war</t>
+  </si>
+  <si>
+    <t>（尤指戰時的）同盟國，盟友</t>
+  </si>
+  <si>
+    <t>demolish</t>
+  </si>
+  <si>
+    <t>to completely destroy a building, especially in order to use the land for something else</t>
+  </si>
+  <si>
+    <t>（尤指為利用土地而）拆除，拆毀</t>
+  </si>
+  <si>
+    <t>conservatory</t>
+  </si>
+  <si>
+    <t>a room with glass walls and a glass roof, usually connected to a house, used for growing plants or for relaxing in</t>
+  </si>
+  <si>
+    <t>溫室，玻璃暖房</t>
+  </si>
+  <si>
+    <t>ballroom</t>
+  </si>
+  <si>
+    <t>a large room that is used for dancing</t>
+  </si>
+  <si>
+    <t>舞廳</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>a large area of land in the country that is owned by a family or an organization and is often used for growing crops or raising animals</t>
+  </si>
+  <si>
+    <t>（位於鄉村的）大片私有土地，莊園，種植園</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>a small building, usually made of wood, used for storing things</t>
+  </si>
+  <si>
+    <t>（通常爲木質、存放物品用的）棚子，小屋</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>a building in which horses are kept</t>
+  </si>
+  <si>
+    <t>馬廄</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>a large building on a farm in which animals or hay (= dried grass) and grain are kept</t>
+  </si>
+  <si>
+    <t>穀倉，糧倉</t>
+  </si>
+  <si>
+    <t>tractor</t>
+  </si>
+  <si>
+    <t>a motor vehicle with large back wheels and thick tyres, used on farms for pulling machinery</t>
+  </si>
+  <si>
+    <t>拖拉機</t>
+  </si>
+  <si>
+    <t>troop</t>
+  </si>
+  <si>
+    <t>a group of soldiers, especially ones who fight in strong military vehicles or on horses</t>
+  </si>
+  <si>
+    <t>軍隊，部隊；（尤指）裝甲兵部隊，騎兵部隊</t>
+  </si>
+  <si>
+    <t>orthodox</t>
+  </si>
+  <si>
+    <t>(of religious people) having more traditional beliefs than other people in the same religious group</t>
+  </si>
+  <si>
+    <t>（宗教信徒）正統派的</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>very interested, eager, or wanting (to do) something very much</t>
+  </si>
+  <si>
+    <t>熱衷的；熱心的；渴望的</t>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>to discover the meaning of something written badly or in a difficult or hidden way</t>
+  </si>
+  <si>
+    <t>辨認；破解，破譯</t>
+  </si>
+  <si>
+    <t>statesman</t>
+  </si>
+  <si>
+    <t>an experienced politician, especially one who is respected for making good judgments</t>
+  </si>
+  <si>
+    <t>（尤指具有遠見卓識而受人尊敬的）政治家</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>consisting of a mixture of various things that are not usually connected with each other</t>
+  </si>
+  <si>
+    <t>混雜的；各種各樣的</t>
+  </si>
+  <si>
+    <t>archbishop</t>
+  </si>
+  <si>
+    <t>a bishop of the highest rank who is in charge of churches and other bishops in a particular large area</t>
+  </si>
+  <si>
+    <t>大主教</t>
+  </si>
+  <si>
+    <t>Syrian</t>
+  </si>
+  <si>
+    <t>belonging to or relating to Syria or its people</t>
+  </si>
+  <si>
+    <t>敘利亞的；敘利亞人的</t>
+  </si>
+  <si>
+    <t>pillage</t>
+  </si>
+  <si>
+    <t>to steal something from a place or a person by using violence, especially during war</t>
+  </si>
+  <si>
+    <t>（尤指在戰爭中）掠奪，搶劫，劫掠</t>
+  </si>
+  <si>
+    <t>hoard</t>
+  </si>
+  <si>
+    <t>a large amount of something that someone has saved and hidden</t>
+  </si>
+  <si>
+    <t>大量儲藏和積存的物品</t>
+  </si>
+  <si>
+    <t>unconventional</t>
+  </si>
+  <si>
+    <t>different from what is usual or from the way most people do things</t>
+  </si>
+  <si>
+    <t>不因循守舊的；不同尋常的</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>a hidden store of things, or the place where they are kept</t>
+  </si>
+  <si>
+    <t>隱藏物；隱藏所</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>very interesting because of being unusual or mysterious</t>
+  </si>
+  <si>
+    <t>非常有趣的；引人入勝的；神秘的</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>to be strong enough, or not be changed by something, or to oppose a person or thing successfully</t>
+  </si>
+  <si>
+    <t>經受；承受；頂住</t>
+  </si>
+  <si>
+    <t>chisel</t>
+  </si>
+  <si>
+    <t>to use a chisel</t>
+  </si>
+  <si>
+    <t>（用鑿子）鑿，雕，刻</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>strange and unusual</t>
+  </si>
+  <si>
+    <t>稀奇的，古怪的，不尋常的</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>a chemical element that is a reddish-brown metal, used especially for making wire and coins</t>
+  </si>
+  <si>
+    <t>銅</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>a chemical element that is a silver-coloured metal, often combined with other metals or used to cover and protect other metals</t>
+  </si>
+  <si>
+    <t>錫</t>
+  </si>
+  <si>
+    <t>papyrus</t>
+  </si>
+  <si>
+    <t>a tall plant like a grass that grows in or near water, especially in North Africa, or paper made from this plant, especially by ancient Egyptians</t>
+  </si>
+  <si>
+    <t>（尤指北非的）紙莎草，（尤指古埃及人製造的）紙莎草紙</t>
+  </si>
+  <si>
+    <t>parchment</t>
+  </si>
+  <si>
+    <t>the thin, dried skin of some animals that was used in the past for writing on, or a high-quality paper made to look like this</t>
+  </si>
+  <si>
+    <t>（舊時書寫用的）羊皮紙；仿羊皮紙</t>
+  </si>
+  <si>
+    <t>sectarian</t>
+  </si>
+  <si>
+    <t>noun, adjective</t>
+  </si>
+  <si>
+    <t>(a person) strongly supporting a particular religious group and not willing to accept other beliefs</t>
+  </si>
+  <si>
+    <t>（人）派系的，教派性的，（尤指）排斥其他信仰的；有門戶之見的</t>
+  </si>
+  <si>
+    <t>biblical</t>
+  </si>
+  <si>
+    <t>in or relating to the Bible</t>
+  </si>
+  <si>
+    <t>《聖經》中的；有關《聖經》的</t>
+  </si>
+  <si>
+    <t>testament</t>
+  </si>
+  <si>
+    <t>a will that someone makes, saying what should be done with their money and property after they die</t>
+  </si>
+  <si>
+    <t>遺囑，遺言</t>
+  </si>
+  <si>
+    <t>proof</t>
+  </si>
+  <si>
+    <t>證明；驗證</t>
+  </si>
+  <si>
+    <t>siege</t>
+  </si>
+  <si>
+    <t>the surrounding of a place by an armed force in order to defeat those defending it</t>
+  </si>
+  <si>
+    <t>圍攻；包圍</t>
+  </si>
+  <si>
+    <t>sect</t>
+  </si>
+  <si>
+    <t>a religious group that has separated from a larger religion and is considered to have extreme or unusual beliefs or customs</t>
+  </si>
+  <si>
+    <t>（宗教的）派別，宗派</t>
+  </si>
+  <si>
+    <t>Jewish</t>
+  </si>
+  <si>
+    <t>connected with people whose traditional religion is Judaism</t>
+  </si>
+  <si>
+    <t>猶太的，猶太教民的</t>
+  </si>
+  <si>
+    <t>devout</t>
+  </si>
+  <si>
+    <t>believing strongly in a religion and obeying all its rules or principles</t>
+  </si>
+  <si>
+    <t>虔誠的，忠實於某宗教的</t>
+  </si>
+  <si>
+    <t>prevailing</t>
+  </si>
+  <si>
+    <t>existing in a particular place or at a particular time</t>
+  </si>
+  <si>
+    <t>盛行的；現有的；通行的</t>
+  </si>
+  <si>
+    <t>scholarly</t>
+  </si>
+  <si>
+    <t>containing a serious, detailed study of a subject</t>
+  </si>
+  <si>
+    <t>學術性的</t>
+  </si>
+  <si>
+    <t>unearth</t>
+  </si>
+  <si>
+    <t>to discover something in the ground</t>
+  </si>
+  <si>
+    <t>發掘，掘出，使出土</t>
+  </si>
+  <si>
+    <t>archaeologist</t>
+  </si>
+  <si>
+    <t>someone who studies the buildings, graves, tools, and other objects of people who lived in the past</t>
+  </si>
+  <si>
+    <t>考古學家</t>
+  </si>
+  <si>
+    <t>stumble across/on/upon sth/sb</t>
+  </si>
+  <si>
+    <t>to discover something by chance, or to meet someone by chance</t>
+  </si>
+  <si>
+    <t>偶然發現；撞見；邂逅</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>to (cause something to) break suddenly into very small pieces</t>
+  </si>
+  <si>
+    <t>（使）破碎；粉碎</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>to throw something carelessly</t>
+  </si>
+  <si>
+    <t>（隨意地）扔，擲，拋</t>
+  </si>
+  <si>
+    <t>shepherd</t>
+  </si>
+  <si>
+    <t>a person whose job is to take care of sheep and move them from one place to another</t>
+  </si>
+  <si>
+    <t>牧羊人</t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t>to care for something or someone</t>
+  </si>
+  <si>
+    <t>照顧，照管；護理</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>to escape by running away, especially because of danger or fear</t>
+  </si>
+  <si>
+    <t>（尤指因危險或恐懼而）逃跑</t>
+  </si>
+  <si>
+    <t>deceit</t>
+  </si>
+  <si>
+    <t>(an act of) keeping the truth hidden, especially to get an advantage</t>
+  </si>
+  <si>
+    <t>欺騙；欺詐</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>to fail to include or do something</t>
+  </si>
+  <si>
+    <t>疏忽，遺漏；刪節，排除</t>
+  </si>
+  <si>
+    <t>prevalent</t>
+  </si>
+  <si>
+    <t>existing very commonly or happening often</t>
+  </si>
+  <si>
+    <t>流行的，盛行的，普遍的</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>to fail to notice or consider something or someone</t>
+  </si>
+  <si>
+    <t>忽視；忽略，沒注意到</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>a written or spoken description of an event</t>
+  </si>
+  <si>
+    <t>報導；報告；記述；描述</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>a strong opinion or belief</t>
+  </si>
+  <si>
+    <t>堅定的看法；堅定的信念；堅定的信仰</t>
+  </si>
+  <si>
+    <t>alliance</t>
+  </si>
+  <si>
+    <t>an agreement to work with someone else to try to achieve the same thing</t>
+  </si>
+  <si>
+    <t>聯盟，結盟；同盟</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>(a) serious discussion of a subject in which many people take part</t>
+  </si>
+  <si>
+    <t>談論，討論；爭論，辯論</t>
+  </si>
+  <si>
+    <t>decisive</t>
+  </si>
+  <si>
+    <t>able to make decisions quickly and confidently, or showing this quality</t>
+  </si>
+  <si>
+    <t>果斷的，乾脆俐落的，明確的；有決斷力的</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>the activity of secretly planning with other people to do something bad or illegal</t>
+  </si>
+  <si>
+    <t>陰謀；密謀；謀劃</t>
+  </si>
   <si>
     <t>niggle</t>
   </si>
   <si>
-    <t>noun</t>
-  </si>
-  <si>
     <t>a small criticism</t>
   </si>
   <si>
@@ -65,9 +1418,6 @@
     <t>tantalizing</t>
   </si>
   <si>
-    <t>adjective</t>
-  </si>
-  <si>
     <t>Something that is tantalizing causes desire and excitement in you, but is unlikely to provide a way of satisfying that desire.</t>
   </si>
   <si>
@@ -113,9 +1463,6 @@
     <t>steer</t>
   </si>
   <si>
-    <t>verb</t>
-  </si>
-  <si>
     <t>to take someone or something or make someone or something go in the direction in which you want him, her, or it</t>
   </si>
   <si>
@@ -131,9 +1478,6 @@
     <t>deftly</t>
   </si>
   <si>
-    <t>adverb</t>
-  </si>
-  <si>
     <t>in a skilful, clever, or quick way</t>
   </si>
   <si>
@@ -803,15 +2147,6 @@
     <t>明顯地；顯然；值得注意地</t>
   </si>
   <si>
-    <t>scepticism</t>
-  </si>
-  <si>
-    <t>an attitude that shows you doubt whether something is true or useful</t>
-  </si>
-  <si>
-    <t>懷疑態度</t>
-  </si>
-  <si>
     <t>era</t>
   </si>
   <si>
@@ -1136,19 +2471,7 @@
     <t>壕溝；溝渠</t>
   </si>
   <si>
-    <t>demolish</t>
-  </si>
-  <si>
-    <t>to completely destroy a building, especially in order to use the land for something else</t>
-  </si>
-  <si>
-    <t>（尤指為利用土地而）拆除，拆毀</t>
-  </si>
-  <si>
     <t>beneath</t>
-  </si>
-  <si>
-    <t>preposition</t>
   </si>
   <si>
     <t>in or to a lower position than someone or something, under someone or something</t>
@@ -1604,16 +2927,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="34.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="-4.83203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="66.0" customHeight="true">
@@ -1621,7 +2944,7 @@
     </row>
     <row r="2" ht="25.0" customHeight="true">
       <c r="A2" s="10" t="s">
-        <v>474</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3">
@@ -1657,2163 +2980,4211 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B136" s="3"/>
       <c r="C136" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D157" s="8"/>
+        <v>468</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B223" s="4"/>
+      <c r="C223" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="D304" s="7"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
